--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>97.85</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.42</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>100.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -941,12 +941,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,14 +977,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -972,14 +1015,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -988,13 +1053,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4466</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1926</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1926</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -713,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2023</t>
+          <t>0.4267</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -751,36 +643,416 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.3035</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +1198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,7 +1219,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -977,36 +1249,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4267</t>
+          <t>0.2023</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1015,416 +1287,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>100.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3035</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>014109</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2287</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005904</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001741</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001742</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略精选灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>57.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014106</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>57.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发睿享稳健增利混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38.85</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011702</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发睿享稳健增利混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>38.85</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005905</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1438,96 +1330,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.37</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.83</v>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>1.37</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.83</v>
       </c>
     </row>
@@ -549,6 +566,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,138 +2488,6 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1829</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1259,26 +2562,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2023</t>
+          <t>0.1829</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1302,12 +2605,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1316,7 +2619,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1325,6 +2628,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
+++ b/数据整理/stocks/A股/上证主板/600603-广汇物流.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>5.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.83</v>
       </c>
     </row>
@@ -566,6 +583,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞锦一年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012177</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2488,138 +3359,6 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1829</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2694,26 +3433,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2023</t>
+          <t>0.1829</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2737,12 +3476,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2751,7 +3490,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2760,6 +3499,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
